--- a/I RIPPLE CALC.xlsx
+++ b/I RIPPLE CALC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Files\BQ25895_BMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F27D558-99FD-467E-A897-DBEABA203176}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D168B374-6CEB-4BEE-A082-677EE6F834DF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{5F3ABC02-F40A-4791-AE5E-D4A3E044F955}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -84,7 +84,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
